--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Ephb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Ephb1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H2">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I2">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J2">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N2">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q2">
-        <v>0.6304263267337777</v>
+        <v>1.605470924967111</v>
       </c>
       <c r="R2">
-        <v>5.673836940604</v>
+        <v>14.449238324704</v>
       </c>
       <c r="S2">
-        <v>0.1619435324962263</v>
+        <v>0.2739134759160057</v>
       </c>
       <c r="T2">
-        <v>0.1619435324962263</v>
+        <v>0.2739134759160056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4197443333333333</v>
+        <v>0.5905326666666667</v>
       </c>
       <c r="H3">
-        <v>1.259233</v>
+        <v>1.771598</v>
       </c>
       <c r="I3">
-        <v>0.2116780627795936</v>
+        <v>0.504014252159901</v>
       </c>
       <c r="J3">
-        <v>0.2116780627795937</v>
+        <v>0.5040142521599009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N3">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q3">
-        <v>0.1936104317046667</v>
+        <v>1.348674448515333</v>
       </c>
       <c r="R3">
-        <v>1.742493885342</v>
+        <v>12.138070036638</v>
       </c>
       <c r="S3">
-        <v>0.04973453028336732</v>
+        <v>0.2301007762438954</v>
       </c>
       <c r="T3">
-        <v>0.04973453028336734</v>
+        <v>0.2301007762438953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H4">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I4">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J4">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N4">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q4">
-        <v>0.8869383343582222</v>
+        <v>1.50340432784</v>
       </c>
       <c r="R4">
-        <v>7.982445009224</v>
+        <v>13.53063895056</v>
       </c>
       <c r="S4">
-        <v>0.2278361814558938</v>
+        <v>0.2564996343077695</v>
       </c>
       <c r="T4">
-        <v>0.2278361814558938</v>
+        <v>0.2564996343077696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5905326666666667</v>
+        <v>0.55299</v>
       </c>
       <c r="H5">
-        <v>1.771598</v>
+        <v>1.65897</v>
       </c>
       <c r="I5">
-        <v>0.297807024326874</v>
+        <v>0.4719719281155831</v>
       </c>
       <c r="J5">
-        <v>0.2978070243268741</v>
+        <v>0.4719719281155832</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N5">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q5">
-        <v>0.2723879167613333</v>
+        <v>1.26293349273</v>
       </c>
       <c r="R5">
-        <v>2.451491250852</v>
+        <v>11.36640143457</v>
       </c>
       <c r="S5">
-        <v>0.06997084287098018</v>
+        <v>0.2154722938078137</v>
       </c>
       <c r="T5">
-        <v>0.0699708428709802</v>
+        <v>0.2154722938078137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H6">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I6">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J6">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N6">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q6">
-        <v>1.226812426413778</v>
+        <v>0.07649285550933332</v>
       </c>
       <c r="R6">
-        <v>11.041311837724</v>
+        <v>0.688435699584</v>
       </c>
       <c r="S6">
-        <v>0.3151428321102013</v>
+        <v>0.01305064053759273</v>
       </c>
       <c r="T6">
-        <v>0.3151428321102014</v>
+        <v>0.01305064053759273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8168243333333334</v>
+        <v>0.028136</v>
       </c>
       <c r="H7">
-        <v>2.450473</v>
+        <v>0.084408</v>
       </c>
       <c r="I7">
-        <v>0.411926448507702</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="J7">
-        <v>0.4119264485077021</v>
+        <v>0.0240138197245159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N7">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q7">
-        <v>0.3767667583446667</v>
+        <v>0.06425775647199999</v>
       </c>
       <c r="R7">
-        <v>3.390900825102</v>
+        <v>0.578319808248</v>
       </c>
       <c r="S7">
-        <v>0.09678361639750067</v>
+        <v>0.01096317918692317</v>
       </c>
       <c r="T7">
-        <v>0.0967836163975007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.155836</v>
-      </c>
-      <c r="H8">
-        <v>0.467508</v>
-      </c>
-      <c r="I8">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J8">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.501929333333333</v>
-      </c>
-      <c r="N8">
-        <v>4.505788</v>
-      </c>
-      <c r="O8">
-        <v>0.7650463650777426</v>
-      </c>
-      <c r="P8">
-        <v>0.7650463650777426</v>
-      </c>
-      <c r="Q8">
-        <v>0.2340546595893333</v>
-      </c>
-      <c r="R8">
-        <v>2.106491936304</v>
-      </c>
-      <c r="S8">
-        <v>0.0601238190154211</v>
-      </c>
-      <c r="T8">
-        <v>0.06012381901542112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.155836</v>
-      </c>
-      <c r="H9">
-        <v>0.467508</v>
-      </c>
-      <c r="I9">
-        <v>0.07858846438583031</v>
-      </c>
-      <c r="J9">
-        <v>0.07858846438583032</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.461258</v>
-      </c>
-      <c r="N9">
-        <v>1.383774</v>
-      </c>
-      <c r="O9">
-        <v>0.2349536349222574</v>
-      </c>
-      <c r="P9">
-        <v>0.2349536349222574</v>
-      </c>
-      <c r="Q9">
-        <v>0.07188060168800001</v>
-      </c>
-      <c r="R9">
-        <v>0.646925415192</v>
-      </c>
-      <c r="S9">
-        <v>0.0184646453704092</v>
-      </c>
-      <c r="T9">
-        <v>0.01846464537040921</v>
+        <v>0.01096317918692317</v>
       </c>
     </row>
   </sheetData>
